--- a/Pricing/Pricing.xlsx
+++ b/Pricing/Pricing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Sensor</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32802431728.html?spm=a2g0o.store_pc_allProduct.8148356.15.3ae921397m3tuo&amp;pdp_npi=2%40dis%21BGN%21BGN%207.42%21BGN%206.82%21%21%21%21%21%402100bdec16707534389111742e966d%2112000028838481182%21sh</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>PCB x30</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -295,17 +301,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
@@ -317,9 +314,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -606,7 +613,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +652,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -657,28 +664,28 @@
         <v>0</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>1.36</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="11" t="s">
+      <c r="N5" s="18"/>
+      <c r="O5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="8"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="M6" t="s">
         <v>0</v>
       </c>
@@ -686,18 +693,18 @@
         <f>C5</f>
         <v>1.36</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="7">
         <f>C5 *2</f>
         <v>2.72</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="M7" t="s">
         <v>10</v>
       </c>
@@ -705,10 +712,10 @@
         <f>C8</f>
         <v>2.11</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="O7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="7">
         <f>C8</f>
         <v>2.11</v>
       </c>
@@ -718,10 +725,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>2.11</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="14"/>
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -729,10 +736,10 @@
         <f>C19</f>
         <v>5.57</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="7">
         <f>C19</f>
         <v>5.57</v>
       </c>
@@ -742,21 +749,21 @@
         <v>4</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="M9" t="s">
         <v>13</v>
       </c>
       <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P9" s="10">
-        <v>2</v>
+      <c r="P9" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -764,23 +771,21 @@
         <v>5</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N10" s="4">
-        <f>SUM(N6:N9)</f>
-        <v>10.039999999999999</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="4">
-        <f>SUM(P6:P9)</f>
-        <v>12.4</v>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -788,82 +793,103 @@
         <v>6</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="17"/>
-      <c r="M11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="5">
-        <f>16*N10</f>
-        <v>160.63999999999999</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P11" s="5">
-        <f>8*P10</f>
-        <v>99.2</v>
-      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="17"/>
-      <c r="M12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM(N6:N9)</f>
-        <v>10.039999999999999</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
-        <f>SUM(P6:P9)</f>
-        <v>12.4</v>
-      </c>
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1">
+        <v>30</v>
+      </c>
+      <c r="C12" s="12">
+        <v>60</v>
+      </c>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="17"/>
-      <c r="M13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="5">
-        <f>8*P12</f>
-        <v>99.2</v>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="M13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="4">
+        <f>SUM(N6:N10)</f>
+        <v>14.04</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="4">
+        <f>SUM(P6:P10)</f>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="14"/>
+      <c r="M14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="5">
+        <f>16*N13</f>
+        <v>224.64</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="5">
+        <f>8*P13</f>
+        <v>115.2</v>
+      </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="M15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <f>SUM(N6:N9)</f>
+        <v>12.04</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <f>SUM(P6:P10)</f>
+        <v>14.4</v>
+      </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="M16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="5">
+        <f>8*P15</f>
+        <v>115.2</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -872,51 +898,51 @@
       <c r="B19" s="1">
         <v>10.9</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <f>ROUND(B19 / 1.95583,2)</f>
         <v>5.57</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="17"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
